--- a/data/trans_dic/IP41-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP41-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,49; 100,0</t>
+          <t>77,06; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>76,57; 100,0</t>
+          <t>78,5; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,78; 100,0</t>
+          <t>86,48; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>68,86; 97,48</t>
+          <t>67,48; 97,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>86,71; 98,73</t>
+          <t>87,22; 98,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>80,25; 96,74</t>
+          <t>80,72; 97,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>89,22; 96,58</t>
+          <t>88,73; 96,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,72; 91,48</t>
+          <t>81,63; 91,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,84; 95,22</t>
+          <t>86,75; 95,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>90,1; 97,19</t>
+          <t>89,71; 97,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>85,74; 94,7</t>
+          <t>85,97; 94,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,22; 89,04</t>
+          <t>76,95; 88,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>91,0; 96,02</t>
+          <t>90,91; 95,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>85,39; 92,15</t>
+          <t>85,38; 92,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>84,31; 91,19</t>
+          <t>83,8; 91,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,5; 96,6</t>
+          <t>91,72; 96,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,33; 94,17</t>
+          <t>88,64; 94,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,18; 88,29</t>
+          <t>80,51; 88,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,15; 94,74</t>
+          <t>88,67; 94,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,79; 92,65</t>
+          <t>85,91; 92,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,56; 89,58</t>
+          <t>81,15; 89,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>90,95; 94,88</t>
+          <t>91,06; 94,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>88,24; 92,86</t>
+          <t>88,25; 92,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>82,13; 87,64</t>
+          <t>82,32; 87,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,02; 95,31</t>
+          <t>88,62; 95,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,29; 91,26</t>
+          <t>83,83; 91,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,83; 83,09</t>
+          <t>72,74; 83,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,65; 94,9</t>
+          <t>87,53; 94,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,85; 93,11</t>
+          <t>85,44; 93,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,4; 88,38</t>
+          <t>79,63; 88,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>89,67; 94,46</t>
+          <t>89,46; 94,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>85,72; 91,54</t>
+          <t>86,17; 91,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>77,3; 84,5</t>
+          <t>77,02; 84,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84,99; 91,77</t>
+          <t>85,07; 91,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,88; 88,44</t>
+          <t>80,4; 88,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,46; 85,43</t>
+          <t>76,53; 85,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>82,62; 90,77</t>
+          <t>82,31; 90,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>81,99; 90,36</t>
+          <t>82,41; 90,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>77,76; 87,0</t>
+          <t>78,13; 86,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>85,07; 90,6</t>
+          <t>84,55; 90,11</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>82,67; 88,5</t>
+          <t>82,78; 88,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>78,68; 84,99</t>
+          <t>78,54; 84,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>90,62; 93,83</t>
+          <t>90,63; 93,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>86,31; 89,96</t>
+          <t>86,25; 90,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,11; 85,78</t>
+          <t>81,55; 85,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>89,01; 92,79</t>
+          <t>89,01; 92,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>87,29; 91,1</t>
+          <t>87,16; 91,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>81,96; 86,34</t>
+          <t>81,91; 86,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>90,51; 92,87</t>
+          <t>90,49; 92,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>87,5; 90,07</t>
+          <t>87,36; 89,98</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>82,37; 85,51</t>
+          <t>82,46; 85,55</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/IP41-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP41-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>93,56%</t>
+          <t>84,25%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -676,17 +676,17 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>88,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>88,25%</t>
+          <t>92,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -696,17 +696,17 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>89,98%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94,39; 100</t>
+          <t>91,16; 97,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,06; 100,0</t>
+          <t>86,98; 95,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,5; 100,0</t>
+          <t>78,88; 89,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0; 0,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,64; 100</t>
+          <t>90,62; 96,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,48; 100,0</t>
+          <t>83,25; 91,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>67,48; 97,3</t>
+          <t>87,54; 95,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0; 1,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>96,96; 100</t>
+          <t>92,5; 96,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>87,22; 98,66</t>
+          <t>86,74; 92,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>80,72; 97,36</t>
+          <t>84,83; 91,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>0; 0,52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,17 +796,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>93,44%</t>
+          <t>91,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>87,15%</t>
+          <t>89,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>85,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -816,17 +816,17 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>94,24%</t>
+          <t>94,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>91,0%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>83,43%</t>
+          <t>84,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -836,17 +836,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>93,82%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>88,98%</t>
+          <t>90,68%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>87,77%</t>
+          <t>85,04%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>88,73; 96,29</t>
+          <t>88,81; 94,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,63; 91,7</t>
+          <t>85,98; 92,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,75; 95,27</t>
+          <t>81,72; 89,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,71; 97,16</t>
+          <t>91,56; 96,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>85,97; 94,65</t>
+          <t>88,24; 94,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>76,95; 88,52</t>
+          <t>80,22; 87,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>90,91; 95,86</t>
+          <t>91,17; 94,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>85,38; 92,01</t>
+          <t>88,17; 92,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>83,8; 91,23</t>
+          <t>81,94; 87,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0; 0,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,17 +936,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>91,94%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>91,88%</t>
+          <t>89,84%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>84,4%</t>
+          <t>84,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,17 +956,17 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,38%</t>
+          <t>87,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>85,73%</t>
+          <t>78,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -976,17 +976,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>92,27%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>90,68%</t>
+          <t>88,83%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>85,04%</t>
+          <t>81,22%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,72; 96,52</t>
+          <t>87,57; 95,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,64; 94,55</t>
+          <t>85,4; 93,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,51; 88,33</t>
+          <t>79,47; 88,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>0; 0,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,67; 94,78</t>
+          <t>88,79; 95,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,91; 92,33</t>
+          <t>83,05; 91,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,15; 89,35</t>
+          <t>72,5; 83,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0; 0,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,06; 94,95</t>
+          <t>89,62; 94,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>88,25; 92,7</t>
+          <t>85,86; 91,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>82,32; 87,84</t>
+          <t>77,34; 84,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,17 +1076,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>92,57%</t>
+          <t>87,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>87,9%</t>
+          <t>86,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>78,52%</t>
+          <t>82,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1096,17 +1096,17 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>88,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>89,84%</t>
+          <t>84,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>84,09%</t>
+          <t>81,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1116,17 +1116,17 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>92,27%</t>
+          <t>87,76%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>88,83%</t>
+          <t>85,72%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>81,22%</t>
+          <t>82,01%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,62; 95,45</t>
+          <t>82,75; 90,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,83; 91,73</t>
+          <t>82,37; 90,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,74; 83,43</t>
+          <t>78,0; 87,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>0; 0,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,53; 94,76</t>
+          <t>84,63; 91,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,44; 93,1</t>
+          <t>80,57; 88,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,63; 88,25</t>
+          <t>76,52; 85,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0; 0,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>89,46; 94,69</t>
+          <t>84,88; 90,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>86,17; 91,47</t>
+          <t>82,54; 88,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>77,02; 84,3</t>
+          <t>78,45; 85,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0; 0,4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,17 +1216,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>88,52%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>84,8%</t>
+          <t>89,17%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>81,31%</t>
+          <t>84,19%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1236,17 +1236,17 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>87,0%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>86,63%</t>
+          <t>88,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>82,7%</t>
+          <t>83,76%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1256,17 +1256,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>87,76%</t>
+          <t>91,76%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>85,72%</t>
+          <t>88,72%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>82,01%</t>
+          <t>83,97%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>85,07; 91,93</t>
+          <t>89,21; 92,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>80,4; 88,37</t>
+          <t>87,23; 91,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,53; 85,6</t>
+          <t>81,72; 86,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>82,31; 90,65</t>
+          <t>90,57; 93,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>82,41; 90,29</t>
+          <t>86,16; 90,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>78,13; 86,92</t>
+          <t>81,43; 85,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>84,55; 90,11</t>
+          <t>90,55; 92,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>82,78; 88,31</t>
+          <t>87,33; 89,99</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>78,54; 84,94</t>
+          <t>82,22; 85,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0; 0,1</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>92,38%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>88,28%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>83,76%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>91,09%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>89,17%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>84,19%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>91,76%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>88,72%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>83,97%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>90,63; 93,83</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>86,25; 90,13</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>81,55; 85,94</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>89,01; 92,74</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>87,16; 91,04</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>81,91; 86,39</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>90,49; 92,83</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>87,36; 89,98</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>82,46; 85,55</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
